--- a/ref/ingestion/calibrated/guatemala/model_input_variables_guatemala_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/guatemala/model_input_variables_guatemala_ip_calibrated.xlsx
@@ -15283,112 +15283,112 @@
         <v>0.8</v>
       </c>
       <c r="J114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="K114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="L114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="M114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="N114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="O114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="P114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="Q114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="R114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="S114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="T114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="U114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="V114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="W114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="X114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="Y114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="Z114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="AA114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="AB114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="AC114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="AD114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="AE114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="AF114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="AG114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="AH114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="AI114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="AJ114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="AK114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="AL114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="AM114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="AN114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="AO114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="AP114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="AQ114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="AR114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
       <c r="AS114" t="n">
-        <v>413655375.9</v>
+        <v>10941.26985</v>
       </c>
     </row>
     <row r="115">

--- a/ref/ingestion/calibrated/guatemala/model_input_variables_guatemala_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/guatemala/model_input_variables_guatemala_ip_calibrated.xlsx
@@ -13449,112 +13449,112 @@
         <v>0.8</v>
       </c>
       <c r="J100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="K100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="L100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="M100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="N100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="O100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="P100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="Q100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="R100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="S100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="T100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="U100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="V100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="W100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="X100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="Y100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="Z100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="AA100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="AB100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="AC100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="AD100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="AE100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="AF100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="AG100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="AH100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="AI100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="AJ100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="AK100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="AL100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="AM100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="AN100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="AO100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="AP100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="AQ100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="AR100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
       <c r="AS100" t="n">
-        <v>2765740.281</v>
+        <v>351066.4746</v>
       </c>
     </row>
     <row r="101">
@@ -13580,112 +13580,112 @@
         <v>0.8</v>
       </c>
       <c r="J101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="K101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="L101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="M101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="N101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="O101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="P101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="Q101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="R101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="S101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="T101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="U101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="V101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="W101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="X101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="Y101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="Z101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="AA101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="AB101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="AC101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="AD101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="AE101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="AF101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="AG101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="AH101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="AI101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="AJ101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="AK101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="AL101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="AM101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="AN101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="AO101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="AP101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="AQ101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="AR101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
       <c r="AS101" t="n">
-        <v>7895016.767</v>
+        <v>789501.6767</v>
       </c>
     </row>
     <row r="102">
@@ -13842,112 +13842,112 @@
         <v>0.8</v>
       </c>
       <c r="J103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="K103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="L103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="M103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="N103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="O103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="P103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="Q103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="R103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="S103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="T103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="U103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="V103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="W103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="X103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="Y103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="Z103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="AA103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="AB103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="AC103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="AD103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="AE103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="AF103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="AG103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="AH103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="AI103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="AJ103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="AK103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="AL103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="AM103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="AN103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="AO103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="AP103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="AQ103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="AR103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
       <c r="AS103" t="n">
-        <v>957091.8745</v>
+        <v>931753.1528</v>
       </c>
     </row>
     <row r="104">
@@ -14104,112 +14104,112 @@
         <v>0.8</v>
       </c>
       <c r="J105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="K105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="L105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="M105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="N105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="O105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="P105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="Q105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="R105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="S105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="T105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="U105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="V105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="W105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="X105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="Y105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="Z105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="AA105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="AB105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="AC105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="AD105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="AE105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="AF105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="AG105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="AH105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="AI105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="AJ105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="AK105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="AL105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="AM105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="AN105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="AO105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="AP105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="AR105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
       <c r="AS105" t="n">
-        <v>1818613.753</v>
+        <v>472839.5758</v>
       </c>
     </row>
     <row r="106">
@@ -14235,112 +14235,112 @@
         <v>0.8</v>
       </c>
       <c r="J106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="K106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="L106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="M106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="N106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="O106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="P106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="Q106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="R106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="S106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="T106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="U106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="V106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="W106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="X106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="Y106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="Z106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="AA106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="AB106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="AC106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="AD106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="AE106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="AF106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="AG106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="AH106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="AI106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="AJ106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="AK106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="AL106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="AM106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="AN106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="AO106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="AP106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="AQ106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="AR106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
       <c r="AS106" t="n">
-        <v>3860558.854</v>
+        <v>20646.66679</v>
       </c>
     </row>
     <row r="107">
@@ -14366,112 +14366,112 @@
         <v>0.8</v>
       </c>
       <c r="J107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="K107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="L107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="M107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="N107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="O107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="P107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="Q107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="R107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="S107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="T107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="U107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="V107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="W107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="X107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="Y107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="Z107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="AA107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="AB107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="AC107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="AD107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="AE107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="AF107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="AG107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="AH107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="AI107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="AJ107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="AK107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="AL107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="AM107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="AN107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="AO107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="AP107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="AQ107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="AR107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
       <c r="AS107" t="n">
-        <v>805158.2323</v>
+        <v>1610316.465</v>
       </c>
     </row>
     <row r="108">
@@ -15414,112 +15414,112 @@
         <v>0.8</v>
       </c>
       <c r="J115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="K115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="L115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="M115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="N115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="O115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="P115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="Q115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="R115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="S115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="T115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="U115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="V115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="W115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="X115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="Y115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="Z115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="AA115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="AB115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="AC115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="AD115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="AE115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="AF115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="AG115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="AH115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="AI115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="AJ115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="AK115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="AL115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="AM115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="AN115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="AO115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="AP115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="AR115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
       <c r="AS115" t="n">
-        <v>1535164.343</v>
+        <v>15351643.43</v>
       </c>
     </row>
     <row r="116">

--- a/ref/ingestion/calibrated/guatemala/model_input_variables_guatemala_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/guatemala/model_input_variables_guatemala_ip_calibrated.xlsx
@@ -12973,112 +12973,112 @@
         <v>0.8</v>
       </c>
       <c r="J100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="K100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="L100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="M100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="N100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="O100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="P100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="Q100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="R100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="S100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="T100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="U100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="V100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="W100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="X100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="Y100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="Z100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="AA100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="AB100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="AC100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="AD100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="AE100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="AF100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="AG100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="AH100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="AI100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="AJ100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="AK100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="AL100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="AM100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="AN100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="AO100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="AP100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="AQ100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="AR100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
       <c r="AS100">
-        <v>7478128.316</v>
+        <v>351066.4746</v>
       </c>
     </row>
     <row r="101" spans="1:45">
@@ -13095,112 +13095,112 @@
         <v>0.8</v>
       </c>
       <c r="J101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="K101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="L101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="M101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="N101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="O101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="P101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="Q101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="R101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="S101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="T101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="U101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="V101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="W101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="X101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="Y101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="Z101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="AA101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="AB101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="AC101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="AD101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="AE101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="AF101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="AG101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="AH101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="AI101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="AJ101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="AK101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="AL101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="AM101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="AN101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="AO101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="AP101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="AQ101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="AR101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
       <c r="AS101">
-        <v>410761.5761</v>
+        <v>789501.6767</v>
       </c>
     </row>
     <row r="102" spans="1:45">
@@ -13217,112 +13217,112 @@
         <v>0.8</v>
       </c>
       <c r="J102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="K102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="L102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="M102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="N102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="O102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="P102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="Q102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="R102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="S102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="T102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="U102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="V102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="W102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="X102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="Y102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="Z102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="AA102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="AB102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="AC102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="AD102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="AE102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="AF102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="AG102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="AH102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="AI102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="AJ102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="AK102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="AL102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="AM102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="AN102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="AO102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="AP102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="AQ102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="AR102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
       <c r="AS102">
-        <v>170344.5721</v>
+        <v>187696.9708</v>
       </c>
     </row>
     <row r="103" spans="1:45">
@@ -13339,112 +13339,112 @@
         <v>0.8</v>
       </c>
       <c r="J103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="K103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="L103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="M103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="N103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="O103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="P103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="Q103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="R103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="S103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="T103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="U103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="V103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="W103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="X103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="Y103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="Z103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="AA103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="AB103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="AC103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="AD103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="AE103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="AF103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="AG103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="AH103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="AI103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="AJ103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="AK103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="AL103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="AM103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="AN103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="AO103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="AP103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="AQ103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="AR103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
       <c r="AS103">
-        <v>45358.88199</v>
+        <v>931753.1528</v>
       </c>
     </row>
     <row r="104" spans="1:45">
@@ -13461,112 +13461,112 @@
         <v>0.8</v>
       </c>
       <c r="J104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="K104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="L104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="M104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="N104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="O104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="P104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="Q104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="R104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="S104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="T104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="U104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="V104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="W104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="X104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="Y104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="Z104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="AA104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="AB104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="AC104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="AD104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="AE104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="AF104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="AG104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="AH104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="AI104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="AJ104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="AK104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="AL104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="AM104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="AN104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="AO104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="AP104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="AQ104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="AR104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
       <c r="AS104">
-        <v>1607.844479</v>
+        <v>270051.1343</v>
       </c>
     </row>
     <row r="105" spans="1:45">
@@ -13583,112 +13583,112 @@
         <v>0.8</v>
       </c>
       <c r="J105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="K105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="L105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="M105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="N105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="O105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="P105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="Q105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="R105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="S105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="T105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="U105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="V105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="W105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="X105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="Y105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="Z105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="AA105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="AB105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="AC105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="AD105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="AE105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="AF105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="AG105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="AH105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="AI105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="AJ105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="AK105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="AL105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="AM105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="AN105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="AO105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="AP105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="AQ105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="AR105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
       <c r="AS105">
-        <v>2121908.456</v>
+        <v>472839.5758</v>
       </c>
     </row>
     <row r="106" spans="1:45">
@@ -13705,112 +13705,112 @@
         <v>0.8</v>
       </c>
       <c r="J106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="K106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="L106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="M106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="N106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="O106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="P106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="Q106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="R106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="S106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="T106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="U106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="V106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="W106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="X106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="Y106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="Z106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="AA106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="AB106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="AC106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="AD106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="AE106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="AF106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="AG106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="AH106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="AI106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="AJ106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="AK106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="AL106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="AM106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="AN106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="AO106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="AP106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="AQ106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="AR106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
       <c r="AS106">
-        <v>1268584.818</v>
+        <v>20646.66679</v>
       </c>
     </row>
     <row r="107" spans="1:45">
@@ -13827,112 +13827,112 @@
         <v>0.8</v>
       </c>
       <c r="J107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="K107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="L107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="M107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="N107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="O107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="P107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="Q107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="R107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="S107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="T107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="U107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="V107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="W107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="X107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="Y107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="Z107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="AA107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="AB107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="AC107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="AD107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="AE107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="AF107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="AG107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="AH107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="AI107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="AJ107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="AK107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="AL107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="AM107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="AN107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="AO107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="AP107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="AQ107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="AR107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
       <c r="AS107">
-        <v>494732.9128</v>
+        <v>1610316.465</v>
       </c>
     </row>
     <row r="108" spans="1:45">
@@ -14681,112 +14681,112 @@
         <v>0.8</v>
       </c>
       <c r="J114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="K114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="L114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="M114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="N114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="O114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="P114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="Q114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="R114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="S114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="T114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="U114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="V114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="W114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="X114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="Y114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="Z114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="AA114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="AB114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="AC114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="AD114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="AE114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="AF114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="AG114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="AH114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="AI114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="AJ114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="AK114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="AL114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="AM114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="AN114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="AO114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="AP114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="AQ114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="AR114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
       <c r="AS114">
-        <v>19710.97632</v>
+        <v>10941.26985</v>
       </c>
     </row>
     <row r="115" spans="1:45">
@@ -14803,112 +14803,112 @@
         <v>0.8</v>
       </c>
       <c r="J115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="K115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="L115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="M115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="N115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="O115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="P115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="Q115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="R115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="S115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="T115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="U115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="V115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="W115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="X115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="Y115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="Z115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="AA115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="AB115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="AC115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="AD115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="AE115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="AF115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="AG115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="AH115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="AI115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="AJ115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="AK115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="AL115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="AM115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="AN115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="AO115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="AP115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="AQ115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="AR115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
       <c r="AS115">
-        <v>186553.4443</v>
+        <v>15351643.43</v>
       </c>
     </row>
     <row r="116" spans="1:45">

--- a/ref/ingestion/calibrated/guatemala/model_input_variables_guatemala_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/guatemala/model_input_variables_guatemala_ip_calibrated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="161">
   <si>
     <t>subsector</t>
   </si>
@@ -495,6 +495,9 @@
   <si>
     <t>vol_ippu_wood_m3_ww_per_tonne_production</t>
   </si>
+  <si>
+    <t>inf</t>
+  </si>
 </sst>
 </file>
 
@@ -1252,112 +1255,112 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="AM4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="AN4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="AO4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="AP4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="AR4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
       <c r="AS4">
-        <v>0.949426377</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -1374,112 +1377,112 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="AM5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="AO5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="AP5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="AR5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
       <c r="AS5">
-        <v>0.938772179</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -1496,112 +1499,112 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>0.907935391</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -1618,112 +1621,112 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="AL7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="AM7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="AO7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="AP7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="AR7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
       <c r="AS7">
-        <v>0.942618521</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -1740,112 +1743,112 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="AK8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="AL8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="AM8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="AO8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="AR8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
       <c r="AS8">
-        <v>1.024504917</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -1862,112 +1865,112 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="AK9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="AL9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="AM9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="AN9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="AO9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="AR9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
       <c r="AS9">
-        <v>1.114994604</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1984,112 +1987,112 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="AL10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="AM10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="AN10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="AO10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="AR10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
       <c r="AS10">
-        <v>1.044185701</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -2228,112 +2231,112 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="AD12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="AF12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="AG12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="AH12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="AI12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="AJ12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="AK12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="AL12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="AM12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="AN12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="AO12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="AR12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
       <c r="AS12">
-        <v>1.009476905</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -2350,112 +2353,112 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="AD13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="AF13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="AG13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="AH13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="AI13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="AJ13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="AK13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="AL13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="AM13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="AN13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="AO13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="AP13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="AR13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
       <c r="AS13">
-        <v>0.98487302</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -2472,112 +2475,112 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="AD14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="AF14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="AG14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="AH14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="AI14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="AK14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="AL14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="AM14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="AO14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="AR14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
       <c r="AS14">
-        <v>1.118107801</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -2594,112 +2597,112 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="AG15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="AH15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="AI15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="AJ15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="AK15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="AL15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="AM15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="AO15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="AR15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
       <c r="AS15">
-        <v>0.978685655</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -3326,112 +3329,112 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="AD21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="AF21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="AG21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="AH21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="AI21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="AJ21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="AK21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="AL21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="AM21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="AN21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="AR21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
       <c r="AS21">
-        <v>1.084867527</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:45">
@@ -3448,112 +3451,112 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="Y22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="AD22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="AF22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="AG22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="AH22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="AI22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="AJ22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="AK22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="AL22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="AM22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="AN22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="AR22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.01774006</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:45">
@@ -12476,112 +12479,112 @@
         <v>1</v>
       </c>
       <c r="J96">
-        <v>7478128.316</v>
+        <v>4232743.88105567</v>
       </c>
       <c r="K96">
-        <v>7478128.316</v>
+        <v>4655365.90005657</v>
       </c>
       <c r="L96">
-        <v>7478128.316</v>
+        <v>6288708.32144297</v>
       </c>
       <c r="M96">
-        <v>7478128.316</v>
+        <v>6386146.05236044</v>
       </c>
       <c r="N96">
-        <v>7478128.316</v>
+        <v>6582472.69270547</v>
       </c>
       <c r="O96">
-        <v>7478128.316</v>
+        <v>7478128.31578463</v>
       </c>
       <c r="P96">
-        <v>7478128.316</v>
+        <v>7478128</v>
       </c>
       <c r="Q96">
-        <v>7478128.316</v>
+        <v>8292977.04938574</v>
       </c>
       <c r="R96">
-        <v>7478128.316</v>
+        <v>9196615.562295619</v>
       </c>
       <c r="S96">
-        <v>7478128.316</v>
+        <v>10198718.4212601</v>
       </c>
       <c r="T96">
-        <v>7478128.316</v>
+        <v>11310014.7256985</v>
       </c>
       <c r="U96">
-        <v>7478128.316</v>
+        <v>12542402.663933</v>
       </c>
       <c r="V96">
-        <v>7478128.316</v>
+        <v>13909076.902154</v>
       </c>
       <c r="W96">
-        <v>7478128.316</v>
+        <v>15424669.8542342</v>
       </c>
       <c r="X96">
-        <v>7478128.316</v>
+        <v>17105408.3449115</v>
       </c>
       <c r="Y96">
-        <v>7478128.316</v>
+        <v>18969287.343667</v>
       </c>
       <c r="Z96">
-        <v>7478128.316</v>
+        <v>21036262.6293952</v>
       </c>
       <c r="AA96">
-        <v>7478128.316</v>
+        <v>23328464.4486462</v>
       </c>
       <c r="AB96">
-        <v>7478128.316</v>
+        <v>25870434.4549911</v>
       </c>
       <c r="AC96">
-        <v>7478128.316</v>
+        <v>28689388.466322</v>
       </c>
       <c r="AD96">
-        <v>7478128.316</v>
+        <v>31815507.8533184</v>
       </c>
       <c r="AE96">
-        <v>7478128.316</v>
+        <v>35282262.6788577</v>
       </c>
       <c r="AF96">
-        <v>7478128.316</v>
+        <v>39126770.0480877</v>
       </c>
       <c r="AG96">
-        <v>7478128.316</v>
+        <v>43390191.5058668</v>
       </c>
       <c r="AH96">
-        <v>7478128.316</v>
+        <v>48118173.7363423</v>
       </c>
       <c r="AI96">
-        <v>7478128.316</v>
+        <v>53361337.283053</v>
       </c>
       <c r="AJ96">
-        <v>7478128.316</v>
+        <v>59175818.5220806</v>
       </c>
       <c r="AK96">
-        <v>7478128.316</v>
+        <v>65623870.690931</v>
       </c>
       <c r="AL96">
-        <v>7478128.316</v>
+        <v>72774530.4081112</v>
       </c>
       <c r="AM96">
-        <v>7478128.316</v>
+        <v>80704356.81955311</v>
       </c>
       <c r="AN96">
-        <v>7478128.316</v>
+        <v>89498251.2856147</v>
       </c>
       <c r="AO96">
-        <v>7478128.316</v>
+        <v>99250366.3847103</v>
       </c>
       <c r="AP96">
-        <v>7478128.316</v>
+        <v>110065113.965892</v>
       </c>
       <c r="AQ96">
-        <v>7478128.316</v>
+        <v>122058283.043185</v>
       </c>
       <c r="AR96">
-        <v>7478128.316</v>
+        <v>135358279.500506</v>
       </c>
       <c r="AS96">
-        <v>7478128.316</v>
+        <v>150107500.880172</v>
       </c>
     </row>
     <row r="97" spans="1:45">
@@ -12598,112 +12601,112 @@
         <v>1</v>
       </c>
       <c r="J97">
-        <v>410761.5761</v>
+        <v>337581.921941338</v>
       </c>
       <c r="K97">
-        <v>410761.5761</v>
+        <v>332394.876645159</v>
       </c>
       <c r="L97">
-        <v>410761.5761</v>
+        <v>337403.288161702</v>
       </c>
       <c r="M97">
-        <v>410761.5761</v>
+        <v>319596.450402898</v>
       </c>
       <c r="N97">
-        <v>410761.5761</v>
+        <v>330806.261606316</v>
       </c>
       <c r="O97">
-        <v>410761.5761</v>
+        <v>410761.57608924</v>
       </c>
       <c r="P97">
-        <v>410761.5761</v>
+        <v>410761.6</v>
       </c>
       <c r="Q97">
-        <v>410761.5761</v>
+        <v>444837.099732904</v>
       </c>
       <c r="R97">
-        <v>410761.5761</v>
+        <v>481739.396522902</v>
       </c>
       <c r="S97">
-        <v>410761.5761</v>
+        <v>521702.992627176</v>
       </c>
       <c r="T97">
-        <v>410761.5761</v>
+        <v>564981.8438779321</v>
       </c>
       <c r="U97">
-        <v>410761.5761</v>
+        <v>611850.973490238</v>
       </c>
       <c r="V97">
-        <v>410761.5761</v>
+        <v>662608.219746323</v>
       </c>
       <c r="W97">
-        <v>410761.5761</v>
+        <v>717576.1286623121</v>
       </c>
       <c r="X97">
-        <v>410761.5761</v>
+        <v>777104.003664676</v>
       </c>
       <c r="Y97">
-        <v>410761.5761</v>
+        <v>841570.125301446</v>
       </c>
       <c r="Z97">
-        <v>410761.5761</v>
+        <v>911384.155093738</v>
       </c>
       <c r="AA97">
-        <v>410761.5761</v>
+        <v>986989.7388032899</v>
       </c>
       <c r="AB97">
-        <v>410761.5761</v>
+        <v>1068867.32565895</v>
       </c>
       <c r="AC97">
-        <v>410761.5761</v>
+        <v>1157537.22145739</v>
       </c>
       <c r="AD97">
-        <v>410761.5761</v>
+        <v>1253562.89493953</v>
       </c>
       <c r="AE97">
-        <v>410761.5761</v>
+        <v>1357554.55845357</v>
       </c>
       <c r="AF97">
-        <v>410761.5761</v>
+        <v>1470173.04565877</v>
       </c>
       <c r="AG97">
-        <v>410761.5761</v>
+        <v>1592134.01091128</v>
       </c>
       <c r="AH97">
-        <v>410761.5761</v>
+        <v>1724212.47701804</v>
       </c>
       <c r="AI97">
-        <v>410761.5761</v>
+        <v>1867247.76025799</v>
       </c>
       <c r="AJ97">
-        <v>410761.5761</v>
+        <v>2022148.80396786</v>
       </c>
       <c r="AK97">
-        <v>410761.5761</v>
+        <v>2189899.9545854</v>
       </c>
       <c r="AL97">
-        <v>410761.5761</v>
+        <v>2371567.21685519</v>
       </c>
       <c r="AM97">
-        <v>410761.5761</v>
+        <v>2568305.02794687</v>
       </c>
       <c r="AN97">
-        <v>410761.5761</v>
+        <v>2781363.59353289</v>
       </c>
       <c r="AO97">
-        <v>410761.5761</v>
+        <v>3012096.83244456</v>
       </c>
       <c r="AP97">
-        <v>410761.5761</v>
+        <v>3261970.9803918</v>
       </c>
       <c r="AQ97">
-        <v>410761.5761</v>
+        <v>3532573.90742072</v>
       </c>
       <c r="AR97">
-        <v>410761.5761</v>
+        <v>3825625.20831831</v>
       </c>
       <c r="AS97">
-        <v>410761.5761</v>
+        <v>4142987.13008569</v>
       </c>
     </row>
     <row r="98" spans="1:45">
@@ -12720,112 +12723,112 @@
         <v>1</v>
       </c>
       <c r="J98">
-        <v>170344.5721</v>
+        <v>137967.009206523</v>
       </c>
       <c r="K98">
-        <v>170344.5721</v>
+        <v>127934.718562797</v>
       </c>
       <c r="L98">
-        <v>170344.5721</v>
+        <v>154163.355011148</v>
       </c>
       <c r="M98">
-        <v>170344.5721</v>
+        <v>145864.969034737</v>
       </c>
       <c r="N98">
-        <v>170344.5721</v>
+        <v>160548.976247616</v>
       </c>
       <c r="O98">
-        <v>170344.5721</v>
+        <v>170344.572126145</v>
       </c>
       <c r="P98">
-        <v>170344.5721</v>
+        <v>170344.6</v>
       </c>
       <c r="Q98">
-        <v>170344.5721</v>
+        <v>181279.525116084</v>
       </c>
       <c r="R98">
-        <v>170344.5721</v>
+        <v>192916.395508357</v>
       </c>
       <c r="S98">
-        <v>170344.5721</v>
+        <v>205300.271126067</v>
       </c>
       <c r="T98">
-        <v>170344.5721</v>
+        <v>218479.104450253</v>
       </c>
       <c r="U98">
-        <v>170344.5721</v>
+        <v>232503.926173939</v>
       </c>
       <c r="V98">
-        <v>170344.5721</v>
+        <v>247429.042801689</v>
       </c>
       <c r="W98">
-        <v>170344.5721</v>
+        <v>263312.246933671</v>
       </c>
       <c r="X98">
-        <v>170344.5721</v>
+        <v>280215.041048467</v>
       </c>
       <c r="Y98">
-        <v>170344.5721</v>
+        <v>298202.87565118</v>
       </c>
       <c r="Z98">
-        <v>170344.5721</v>
+        <v>317345.402708959</v>
       </c>
       <c r="AA98">
-        <v>170344.5721</v>
+        <v>337716.745355311</v>
       </c>
       <c r="AB98">
-        <v>170344.5721</v>
+        <v>359395.784907535</v>
       </c>
       <c r="AC98">
-        <v>170344.5721</v>
+        <v>382466.466308648</v>
       </c>
       <c r="AD98">
-        <v>170344.5721</v>
+        <v>407018.123176539</v>
       </c>
       <c r="AE98">
-        <v>170344.5721</v>
+        <v>433145.823718995</v>
       </c>
       <c r="AF98">
-        <v>170344.5721</v>
+        <v>460950.73885403</v>
       </c>
       <c r="AG98">
-        <v>170344.5721</v>
+        <v>490540.533960962</v>
       </c>
       <c r="AH98">
-        <v>170344.5721</v>
+        <v>522029.785779139</v>
       </c>
       <c r="AI98">
-        <v>170344.5721</v>
+        <v>555540.4260686469</v>
       </c>
       <c r="AJ98">
-        <v>170344.5721</v>
+        <v>591202.213750897</v>
       </c>
       <c r="AK98">
-        <v>170344.5721</v>
+        <v>629153.237357333</v>
       </c>
       <c r="AL98">
-        <v>170344.5721</v>
+        <v>669540.449731802</v>
       </c>
       <c r="AM98">
-        <v>170344.5721</v>
+        <v>712520.2370570611</v>
       </c>
       <c r="AN98">
-        <v>170344.5721</v>
+        <v>758259.024408777</v>
       </c>
       <c r="AO98">
-        <v>170344.5721</v>
+        <v>806933.920181843</v>
       </c>
       <c r="AP98">
-        <v>170344.5721</v>
+        <v>858733.4018843221</v>
       </c>
       <c r="AQ98">
-        <v>170344.5721</v>
+        <v>913858.045954547</v>
       </c>
       <c r="AR98">
-        <v>170344.5721</v>
+        <v>972521.304427334</v>
       </c>
       <c r="AS98">
-        <v>170344.5721</v>
+        <v>1034950.33145671</v>
       </c>
     </row>
     <row r="99" spans="1:45">
@@ -12842,112 +12845,112 @@
         <v>1</v>
       </c>
       <c r="J99">
-        <v>45358.88199</v>
+        <v>34863.509234869</v>
       </c>
       <c r="K99">
-        <v>45358.88199</v>
+        <v>39504.7206588991</v>
       </c>
       <c r="L99">
-        <v>45358.88199</v>
+        <v>37072.1220933371</v>
       </c>
       <c r="M99">
-        <v>45358.88199</v>
+        <v>35925.2889167085</v>
       </c>
       <c r="N99">
-        <v>45358.88199</v>
+        <v>38674.2152146181</v>
       </c>
       <c r="O99">
-        <v>45358.88199</v>
+        <v>45358.8819918901</v>
       </c>
       <c r="P99">
-        <v>45358.88199</v>
+        <v>45358.88</v>
       </c>
       <c r="Q99">
-        <v>45358.88199</v>
+        <v>48977.617683246</v>
       </c>
       <c r="R99">
-        <v>45358.88199</v>
+        <v>52885.0587564378</v>
       </c>
       <c r="S99">
-        <v>45358.88199</v>
+        <v>57104.236015722</v>
       </c>
       <c r="T99">
-        <v>45358.88199</v>
+        <v>61660.0198168887</v>
       </c>
       <c r="U99">
-        <v>45358.88199</v>
+        <v>66579.26467613289</v>
       </c>
       <c r="V99">
-        <v>45358.88199</v>
+        <v>71890.96756664359</v>
       </c>
       <c r="W99">
-        <v>45358.88199</v>
+        <v>77626.4388441185</v>
       </c>
       <c r="X99">
-        <v>45358.88199</v>
+        <v>83819.48680873759</v>
       </c>
       <c r="Y99">
-        <v>45358.88199</v>
+        <v>90506.61699151809</v>
       </c>
       <c r="Z99">
-        <v>45358.88199</v>
+        <v>97727.24733976131</v>
       </c>
       <c r="AA99">
-        <v>45358.88199</v>
+        <v>105523.940570024</v>
       </c>
       <c r="AB99">
-        <v>45358.88199</v>
+        <v>113942.655058242</v>
       </c>
       <c r="AC99">
-        <v>45358.88199</v>
+        <v>123033.015745904</v>
       </c>
       <c r="AD99">
-        <v>45358.88199</v>
+        <v>132848.606659152</v>
       </c>
       <c r="AE99">
-        <v>45358.88199</v>
+        <v>143447.286765102</v>
       </c>
       <c r="AF99">
-        <v>45358.88199</v>
+        <v>154891.531027224</v>
       </c>
       <c r="AG99">
-        <v>45358.88199</v>
+        <v>167248.798670162</v>
       </c>
       <c r="AH99">
-        <v>45358.88199</v>
+        <v>180591.930824777</v>
       </c>
       <c r="AI99">
-        <v>45358.88199</v>
+        <v>194999.579897368</v>
       </c>
       <c r="AJ99">
-        <v>45358.88199</v>
+        <v>210556.673194022</v>
       </c>
       <c r="AK99">
-        <v>45358.88199</v>
+        <v>227354.913532984</v>
       </c>
       <c r="AL99">
-        <v>45358.88199</v>
+        <v>245493.319795946</v>
       </c>
       <c r="AM99">
-        <v>45358.88199</v>
+        <v>265078.810604598</v>
       </c>
       <c r="AN99">
-        <v>45358.88199</v>
+        <v>286226.83456297</v>
       </c>
       <c r="AO99">
-        <v>45358.88199</v>
+        <v>309062.050780593</v>
       </c>
       <c r="AP99">
-        <v>45358.88199</v>
+        <v>333719.063687901</v>
       </c>
       <c r="AQ99">
-        <v>45358.88199</v>
+        <v>360343.216475293</v>
       </c>
       <c r="AR99">
-        <v>45358.88199</v>
+        <v>389091.447832884</v>
       </c>
       <c r="AS99">
-        <v>45358.88199</v>
+        <v>420133.217041065</v>
       </c>
     </row>
     <row r="100" spans="1:45">
@@ -12964,112 +12967,112 @@
         <v>1</v>
       </c>
       <c r="J100">
-        <v>1607.844479</v>
+        <v>0</v>
       </c>
       <c r="K100">
-        <v>1607.844479</v>
+        <v>0</v>
       </c>
       <c r="L100">
-        <v>1607.844479</v>
+        <v>0</v>
       </c>
       <c r="M100">
-        <v>1607.844479</v>
+        <v>2273.42923323249</v>
       </c>
       <c r="N100">
-        <v>1607.844479</v>
+        <v>4796.91576477642</v>
       </c>
       <c r="O100">
-        <v>1607.844479</v>
+        <v>1607.84447899566</v>
       </c>
       <c r="P100">
-        <v>1607.844479</v>
-      </c>
-      <c r="Q100">
-        <v>1607.844479</v>
-      </c>
-      <c r="R100">
-        <v>1607.844479</v>
-      </c>
-      <c r="S100">
-        <v>1607.844479</v>
-      </c>
-      <c r="T100">
-        <v>1607.844479</v>
-      </c>
-      <c r="U100">
-        <v>1607.844479</v>
-      </c>
-      <c r="V100">
-        <v>1607.844479</v>
-      </c>
-      <c r="W100">
-        <v>1607.844479</v>
-      </c>
-      <c r="X100">
-        <v>1607.844479</v>
-      </c>
-      <c r="Y100">
-        <v>1607.844479</v>
-      </c>
-      <c r="Z100">
-        <v>1607.844479</v>
-      </c>
-      <c r="AA100">
-        <v>1607.844479</v>
-      </c>
-      <c r="AB100">
-        <v>1607.844479</v>
-      </c>
-      <c r="AC100">
-        <v>1607.844479</v>
-      </c>
-      <c r="AD100">
-        <v>1607.844479</v>
-      </c>
-      <c r="AE100">
-        <v>1607.844479</v>
-      </c>
-      <c r="AF100">
-        <v>1607.844479</v>
-      </c>
-      <c r="AG100">
-        <v>1607.844479</v>
-      </c>
-      <c r="AH100">
-        <v>1607.844479</v>
-      </c>
-      <c r="AI100">
-        <v>1607.844479</v>
-      </c>
-      <c r="AJ100">
-        <v>1607.844479</v>
-      </c>
-      <c r="AK100">
-        <v>1607.844479</v>
-      </c>
-      <c r="AL100">
-        <v>1607.844479</v>
-      </c>
-      <c r="AM100">
-        <v>1607.844479</v>
-      </c>
-      <c r="AN100">
-        <v>1607.844479</v>
-      </c>
-      <c r="AO100">
-        <v>1607.844479</v>
-      </c>
-      <c r="AP100">
-        <v>1607.844479</v>
-      </c>
-      <c r="AQ100">
-        <v>1607.844479</v>
-      </c>
-      <c r="AR100">
-        <v>1607.844479</v>
-      </c>
-      <c r="AS100">
-        <v>1607.844479</v>
+        <v>1607.844</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>160</v>
+      </c>
+      <c r="R100" t="s">
+        <v>160</v>
+      </c>
+      <c r="S100" t="s">
+        <v>160</v>
+      </c>
+      <c r="T100" t="s">
+        <v>160</v>
+      </c>
+      <c r="U100" t="s">
+        <v>160</v>
+      </c>
+      <c r="V100" t="s">
+        <v>160</v>
+      </c>
+      <c r="W100" t="s">
+        <v>160</v>
+      </c>
+      <c r="X100" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS100" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="101" spans="1:45">
@@ -13086,112 +13089,112 @@
         <v>1</v>
       </c>
       <c r="J101">
-        <v>2121908.456</v>
+        <v>1430305.64775386</v>
       </c>
       <c r="K101">
-        <v>2121908.456</v>
+        <v>1501073.35926985</v>
       </c>
       <c r="L101">
-        <v>2121908.456</v>
+        <v>1659203.96359911</v>
       </c>
       <c r="M101">
-        <v>2121908.456</v>
+        <v>1771270.01367226</v>
       </c>
       <c r="N101">
-        <v>2121908.456</v>
+        <v>1946384.51216091</v>
       </c>
       <c r="O101">
-        <v>2121908.456</v>
+        <v>2121908.45598091</v>
       </c>
       <c r="P101">
-        <v>2121908.456</v>
+        <v>2121908</v>
       </c>
       <c r="Q101">
-        <v>2121908.456</v>
+        <v>2384199.85092047</v>
       </c>
       <c r="R101">
-        <v>2121908.456</v>
+        <v>2678913.94402075</v>
       </c>
       <c r="S101">
-        <v>2121908.456</v>
+        <v>3010058.03548648</v>
       </c>
       <c r="T101">
-        <v>2121908.456</v>
+        <v>3382135.28553962</v>
       </c>
       <c r="U101">
-        <v>2121908.456</v>
+        <v>3800205.49598589</v>
       </c>
       <c r="V101">
-        <v>2121908.456</v>
+        <v>4269953.91741616</v>
       </c>
       <c r="W101">
-        <v>2121908.456</v>
+        <v>4797768.5617571</v>
       </c>
       <c r="X101">
-        <v>2121908.456</v>
+        <v>5390827.07152817</v>
       </c>
       <c r="Y101">
-        <v>2121908.456</v>
+        <v>6057194.32712233</v>
       </c>
       <c r="Z101">
-        <v>2121908.456</v>
+        <v>6805932.11945162</v>
       </c>
       <c r="AA101">
-        <v>2121908.456</v>
+        <v>7647222.37937337</v>
       </c>
       <c r="AB101">
-        <v>2121908.456</v>
+        <v>8592505.63966848</v>
       </c>
       <c r="AC101">
-        <v>2121908.456</v>
+        <v>9654636.612487851</v>
       </c>
       <c r="AD101">
-        <v>2121908.456</v>
+        <v>10848058.9979324</v>
       </c>
       <c r="AE101">
-        <v>2121908.456</v>
+        <v>12189001.9009528</v>
       </c>
       <c r="AF101">
-        <v>2121908.456</v>
+        <v>13695700.5276011</v>
       </c>
       <c r="AG101">
-        <v>2121908.456</v>
+        <v>15388644.1618383</v>
       </c>
       <c r="AH101">
-        <v>2121908.456</v>
+        <v>17290854.795082</v>
       </c>
       <c r="AI101">
-        <v>2121908.456</v>
+        <v>19428200.1975213</v>
       </c>
       <c r="AJ101">
-        <v>2121908.456</v>
+        <v>21829745.6885894</v>
       </c>
       <c r="AK101">
-        <v>2121908.456</v>
+        <v>24528149.3902499</v>
       </c>
       <c r="AL101">
-        <v>2121908.456</v>
+        <v>27560106.3380641</v>
       </c>
       <c r="AM101">
-        <v>2121908.456</v>
+        <v>30966847.4894127</v>
       </c>
       <c r="AN101">
-        <v>2121908.456</v>
+        <v>34794700.4147845</v>
       </c>
       <c r="AO101">
-        <v>2121908.456</v>
+        <v>39095719.2968553</v>
       </c>
       <c r="AP101">
-        <v>2121908.456</v>
+        <v>43928392.8045847</v>
       </c>
       <c r="AQ101">
-        <v>2121908.456</v>
+        <v>49358439.4685664</v>
       </c>
       <c r="AR101">
-        <v>2121908.456</v>
+        <v>55459701.3737744</v>
       </c>
       <c r="AS101">
-        <v>2121908.456</v>
+        <v>62315148.3228522</v>
       </c>
     </row>
     <row r="102" spans="1:45">
@@ -13208,112 +13211,112 @@
         <v>1</v>
       </c>
       <c r="J102">
-        <v>108</v>
+        <v>44690013.0964889</v>
       </c>
       <c r="K102">
-        <v>100</v>
+        <v>38199154.8692729</v>
       </c>
       <c r="L102">
-        <v>100</v>
+        <v>18371425.8964622</v>
       </c>
       <c r="M102">
-        <v>100</v>
+        <v>3498503.39379385</v>
       </c>
       <c r="N102">
-        <v>100</v>
+        <v>1586215.44310945</v>
       </c>
       <c r="O102">
-        <v>100</v>
+        <v>2863963.23450838</v>
       </c>
       <c r="P102">
-        <v>100</v>
+        <v>2863963</v>
       </c>
       <c r="Q102">
-        <v>100</v>
+        <v>2933112.15198055</v>
       </c>
       <c r="R102">
-        <v>100</v>
+        <v>3003930.88042547</v>
       </c>
       <c r="S102">
-        <v>100</v>
+        <v>3076459.49653874</v>
       </c>
       <c r="T102">
-        <v>100</v>
+        <v>3150739.28482098</v>
       </c>
       <c r="U102">
-        <v>100</v>
+        <v>3226812.52656928</v>
       </c>
       <c r="V102">
-        <v>100</v>
+        <v>3304722.52394441</v>
       </c>
       <c r="W102">
-        <v>100</v>
+        <v>3384513.62461917</v>
       </c>
       <c r="X102">
-        <v>100</v>
+        <v>3466231.24702178</v>
       </c>
       <c r="Y102">
-        <v>100</v>
+        <v>3549921.90618883</v>
       </c>
       <c r="Z102">
-        <v>100</v>
+        <v>3635633.24024242</v>
       </c>
       <c r="AA102">
-        <v>100</v>
+        <v>3723414.03750658</v>
       </c>
       <c r="AB102">
-        <v>100</v>
+        <v>3813314.26427839</v>
       </c>
       <c r="AC102">
-        <v>100</v>
+        <v>3905385.09326961</v>
       </c>
       <c r="AD102">
-        <v>100</v>
+        <v>3999678.93273509</v>
       </c>
       <c r="AE102">
-        <v>100</v>
+        <v>4096249.45630439</v>
       </c>
       <c r="AF102">
-        <v>100</v>
+        <v>4195151.63353372</v>
       </c>
       <c r="AG102">
-        <v>100</v>
+        <v>4296441.76119552</v>
       </c>
       <c r="AH102">
-        <v>100</v>
+        <v>4400177.49532355</v>
       </c>
       <c r="AI102">
-        <v>100</v>
+        <v>4506417.88403162</v>
       </c>
       <c r="AJ102">
-        <v>100</v>
+        <v>4615223.40112481</v>
       </c>
       <c r="AK102">
-        <v>100</v>
+        <v>4726655.98052216</v>
       </c>
       <c r="AL102">
-        <v>100</v>
+        <v>4840779.05151047</v>
       </c>
       <c r="AM102">
-        <v>100</v>
+        <v>4957657.57484934</v>
       </c>
       <c r="AN102">
-        <v>100</v>
+        <v>5077358.0797479</v>
       </c>
       <c r="AO102">
-        <v>100</v>
+        <v>5199948.70173434</v>
       </c>
       <c r="AP102">
-        <v>100</v>
+        <v>5325499.22143983</v>
       </c>
       <c r="AQ102">
-        <v>100</v>
+        <v>5454081.10431878</v>
       </c>
       <c r="AR102">
-        <v>100</v>
+        <v>5585767.5413282</v>
       </c>
       <c r="AS102">
-        <v>100</v>
+        <v>5720633.49058918</v>
       </c>
     </row>
     <row r="103" spans="1:45">
@@ -13330,112 +13333,112 @@
         <v>1</v>
       </c>
       <c r="J103">
-        <v>1268584.818</v>
+        <v>952964.727484424</v>
       </c>
       <c r="K103">
-        <v>1268584.818</v>
+        <v>989620.106380326</v>
       </c>
       <c r="L103">
-        <v>1268584.818</v>
+        <v>1176085.03553267</v>
       </c>
       <c r="M103">
-        <v>1268584.818</v>
+        <v>1158726.76261013</v>
       </c>
       <c r="N103">
-        <v>1268584.818</v>
+        <v>1226206.9883228</v>
       </c>
       <c r="O103">
-        <v>1268584.818</v>
+        <v>1268584.81767136</v>
       </c>
       <c r="P103">
-        <v>1268584.818</v>
+        <v>1268585</v>
       </c>
       <c r="Q103">
-        <v>1268584.818</v>
+        <v>1370323.47457815</v>
       </c>
       <c r="R103">
-        <v>1268584.818</v>
+        <v>1480221.21101852</v>
       </c>
       <c r="S103">
-        <v>1268584.818</v>
+        <v>1598932.56898606</v>
       </c>
       <c r="T103">
-        <v>1268584.818</v>
+        <v>1727164.38673731</v>
       </c>
       <c r="U103">
-        <v>1268584.818</v>
+        <v>1865680.18981898</v>
       </c>
       <c r="V103">
-        <v>1268584.818</v>
+        <v>2015304.73729735</v>
       </c>
       <c r="W103">
-        <v>1268584.818</v>
+        <v>2176928.93258797</v>
       </c>
       <c r="X103">
-        <v>1268584.818</v>
+        <v>2351515.12812595</v>
       </c>
       <c r="Y103">
-        <v>1268584.818</v>
+        <v>2540102.85546229</v>
       </c>
       <c r="Z103">
-        <v>1268584.818</v>
+        <v>2743815.01490477</v>
       </c>
       <c r="AA103">
-        <v>1268584.818</v>
+        <v>2963864.56155796</v>
       </c>
       <c r="AB103">
-        <v>1268584.818</v>
+        <v>3201561.72757296</v>
       </c>
       <c r="AC103">
-        <v>1268584.818</v>
+        <v>3458321.82360993</v>
       </c>
       <c r="AD103">
-        <v>1268584.818</v>
+        <v>3735673.66596531</v>
       </c>
       <c r="AE103">
-        <v>1268584.818</v>
+        <v>4035268.67954113</v>
       </c>
       <c r="AF103">
-        <v>1268584.818</v>
+        <v>4358890.73085776</v>
       </c>
       <c r="AG103">
-        <v>1268584.818</v>
+        <v>4708466.74965847</v>
       </c>
       <c r="AH103">
-        <v>1268584.818</v>
+        <v>5086078.20234961</v>
       </c>
       <c r="AI103">
-        <v>1268584.818</v>
+        <v>5493973.48559215</v>
       </c>
       <c r="AJ103">
-        <v>1268584.818</v>
+        <v>5934581.31383932</v>
       </c>
       <c r="AK103">
-        <v>1268584.818</v>
+        <v>6410525.18053332</v>
       </c>
       <c r="AL103">
-        <v>1268584.818</v>
+        <v>6924638.97906656</v>
       </c>
       <c r="AM103">
-        <v>1268584.818</v>
+        <v>7479983.87651894</v>
       </c>
       <c r="AN103">
-        <v>1268584.818</v>
+        <v>8079866.54064172</v>
       </c>
       <c r="AO103">
-        <v>1268584.818</v>
+        <v>8727858.828616049</v>
       </c>
       <c r="AP103">
-        <v>1268584.818</v>
+        <v>9427819.054818351</v>
       </c>
       <c r="AQ103">
-        <v>1268584.818</v>
+        <v>10183914.9642261</v>
       </c>
       <c r="AR103">
-        <v>1268584.818</v>
+        <v>11000648.5482539</v>
       </c>
       <c r="AS103">
-        <v>1268584.818</v>
+        <v>11882882.8507797</v>
       </c>
     </row>
     <row r="104" spans="1:45">
@@ -13452,112 +13455,112 @@
         <v>1</v>
       </c>
       <c r="J104">
-        <v>494732.9128</v>
+        <v>389343.18477199</v>
       </c>
       <c r="K104">
-        <v>494732.9128</v>
+        <v>417415.076307785</v>
       </c>
       <c r="L104">
-        <v>494732.9128</v>
+        <v>432824.732062608</v>
       </c>
       <c r="M104">
-        <v>494732.9128</v>
+        <v>446530.546036425</v>
       </c>
       <c r="N104">
-        <v>494732.9128</v>
+        <v>467383.799552435</v>
       </c>
       <c r="O104">
-        <v>494732.9128</v>
+        <v>494732.912805144</v>
       </c>
       <c r="P104">
-        <v>494732.9128</v>
+        <v>494732.9</v>
       </c>
       <c r="Q104">
-        <v>494732.9128</v>
+        <v>534617.5829244989</v>
       </c>
       <c r="R104">
-        <v>494732.9128</v>
+        <v>577717.713885681</v>
       </c>
       <c r="S104">
-        <v>494732.9128</v>
+        <v>624292.517862123</v>
       </c>
       <c r="T104">
-        <v>494732.9128</v>
+        <v>674622.118192054</v>
       </c>
       <c r="U104">
-        <v>494732.9128</v>
+        <v>729009.221370241</v>
       </c>
       <c r="V104">
-        <v>494732.9128</v>
+        <v>787780.93767087</v>
       </c>
       <c r="W104">
-        <v>494732.9128</v>
+        <v>851290.74854653</v>
       </c>
       <c r="X104">
-        <v>494732.9128</v>
+        <v>919920.632636182</v>
       </c>
       <c r="Y104">
-        <v>494732.9128</v>
+        <v>994083.3631689569</v>
       </c>
       <c r="Z104">
-        <v>494732.9128</v>
+        <v>1074224.99058147</v>
       </c>
       <c r="AA104">
-        <v>494732.9128</v>
+        <v>1160827.52528033</v>
       </c>
       <c r="AB104">
-        <v>494732.9128</v>
+        <v>1254411.8366852</v>
       </c>
       <c r="AC104">
-        <v>494732.9128</v>
+        <v>1355540.78598881</v>
       </c>
       <c r="AD104">
-        <v>494732.9128</v>
+        <v>1464822.61147563</v>
       </c>
       <c r="AE104">
-        <v>494732.9128</v>
+        <v>1582914.58676036</v>
       </c>
       <c r="AF104">
-        <v>494732.9128</v>
+        <v>1710526.97394848</v>
       </c>
       <c r="AG104">
-        <v>494732.9128</v>
+        <v>1848427.29549519</v>
       </c>
       <c r="AH104">
-        <v>494732.9128</v>
+        <v>1997444.9504557</v>
       </c>
       <c r="AI104">
-        <v>494732.9128</v>
+        <v>2158476.20289124</v>
       </c>
       <c r="AJ104">
-        <v>494732.9128</v>
+        <v>2332489.57243346</v>
       </c>
       <c r="AK104">
-        <v>494732.9128</v>
+        <v>2520531.6594287</v>
       </c>
       <c r="AL104">
-        <v>494732.9128</v>
+        <v>2723733.43969735</v>
       </c>
       <c r="AM104">
-        <v>494732.9128</v>
+        <v>2943317.06676801</v>
       </c>
       <c r="AN104">
-        <v>494732.9128</v>
+        <v>3180603.22249832</v>
       </c>
       <c r="AO104">
-        <v>494732.9128</v>
+        <v>3437019.06029278</v>
       </c>
       <c r="AP104">
-        <v>494732.9128</v>
+        <v>3714106.78869175</v>
       </c>
       <c r="AQ104">
-        <v>494732.9128</v>
+        <v>4013532.94695755</v>
       </c>
       <c r="AR104">
-        <v>494732.9128</v>
+        <v>4337098.4284455</v>
       </c>
       <c r="AS104">
-        <v>494732.9128</v>
+        <v>4686749.3120453</v>
       </c>
     </row>
     <row r="105" spans="1:45">
@@ -14306,112 +14309,112 @@
         <v>1</v>
       </c>
       <c r="J111">
-        <v>19710.97632</v>
+        <v>16086.7031650186</v>
       </c>
       <c r="K111">
-        <v>19710.97632</v>
+        <v>15102.6240457849</v>
       </c>
       <c r="L111">
-        <v>19710.97632</v>
+        <v>17404.7521369972</v>
       </c>
       <c r="M111">
-        <v>19710.97632</v>
+        <v>17117.4149558722</v>
       </c>
       <c r="N111">
-        <v>19710.97632</v>
+        <v>18647.3915688246</v>
       </c>
       <c r="O111">
-        <v>19710.97632</v>
+        <v>19710.9763205707</v>
       </c>
       <c r="P111">
-        <v>19710.97632</v>
+        <v>19710.98</v>
       </c>
       <c r="Q111">
-        <v>19710.97632</v>
+        <v>20636.9806471543</v>
       </c>
       <c r="R111">
-        <v>19710.97632</v>
+        <v>21606.483809076</v>
       </c>
       <c r="S111">
-        <v>19710.97632</v>
+        <v>22621.533187135</v>
       </c>
       <c r="T111">
-        <v>19710.97632</v>
+        <v>23684.2684935942</v>
       </c>
       <c r="U111">
-        <v>19710.97632</v>
+        <v>24796.9299620977</v>
       </c>
       <c r="V111">
-        <v>19710.97632</v>
+        <v>25961.863070058</v>
       </c>
       <c r="W111">
-        <v>19710.97632</v>
+        <v>27181.5234828941</v>
       </c>
       <c r="X111">
-        <v>19710.97632</v>
+        <v>28458.4822305465</v>
       </c>
       <c r="Y111">
-        <v>19710.97632</v>
+        <v>29795.4311271774</v>
       </c>
       <c r="Z111">
-        <v>19710.97632</v>
+        <v>31195.1884454847</v>
       </c>
       <c r="AA111">
-        <v>19710.97632</v>
+        <v>32660.7048575869</v>
       </c>
       <c r="AB111">
-        <v>19710.97632</v>
+        <v>34195.0696550065</v>
       </c>
       <c r="AC111">
-        <v>19710.97632</v>
+        <v>35801.5172608598</v>
       </c>
       <c r="AD111">
-        <v>19710.97632</v>
+        <v>37483.4340479837</v>
       </c>
       <c r="AE111">
-        <v>19710.97632</v>
+        <v>39244.3654773697</v>
       </c>
       <c r="AF111">
-        <v>19710.97632</v>
+        <v>41088.0235719547</v>
       </c>
       <c r="AG111">
-        <v>19710.97632</v>
+        <v>43018.2947415222</v>
       </c>
       <c r="AH111">
-        <v>19710.97632</v>
+        <v>45039.2479752084</v>
       </c>
       <c r="AI111">
-        <v>19710.97632</v>
+        <v>47155.1434188843</v>
       </c>
       <c r="AJ111">
-        <v>19710.97632</v>
+        <v>49370.4413554933</v>
       </c>
       <c r="AK111">
-        <v>19710.97632</v>
+        <v>51689.8116072758</v>
       </c>
       <c r="AL111">
-        <v>19710.97632</v>
+        <v>54118.1433797002</v>
       </c>
       <c r="AM111">
-        <v>19710.97632</v>
+        <v>56660.5555678508</v>
       </c>
       <c r="AN111">
-        <v>19710.97632</v>
+        <v>59322.4075469991</v>
       </c>
       <c r="AO111">
-        <v>19710.97632</v>
+        <v>62109.3104701045</v>
       </c>
       <c r="AP111">
-        <v>19710.97632</v>
+        <v>65027.1390960594</v>
       </c>
       <c r="AQ111">
-        <v>19710.97632</v>
+        <v>68082.0441736123</v>
       </c>
       <c r="AR111">
-        <v>19710.97632</v>
+        <v>71280.46540707471</v>
       </c>
       <c r="AS111">
-        <v>19710.97632</v>
+        <v>74629.1450311427</v>
       </c>
     </row>
     <row r="112" spans="1:45">
@@ -14428,112 +14431,112 @@
         <v>1</v>
       </c>
       <c r="J112">
-        <v>186553.4443</v>
+        <v>166685.510013412</v>
       </c>
       <c r="K112">
-        <v>186553.4443</v>
+        <v>170250.409701577</v>
       </c>
       <c r="L112">
-        <v>186553.4443</v>
+        <v>177975.264742183</v>
       </c>
       <c r="M112">
-        <v>186553.4443</v>
+        <v>189755.105933846</v>
       </c>
       <c r="N112">
-        <v>186553.4443</v>
+        <v>189455.608053732</v>
       </c>
       <c r="O112">
-        <v>186553.4443</v>
+        <v>186553.444339738</v>
       </c>
       <c r="P112">
-        <v>186553.4443</v>
+        <v>186553.4</v>
       </c>
       <c r="Q112">
-        <v>186553.4443</v>
+        <v>197314.560802144</v>
       </c>
       <c r="R112">
-        <v>186553.4443</v>
+        <v>208696.469239065</v>
       </c>
       <c r="S112">
-        <v>186553.4443</v>
+        <v>220734.932565497</v>
       </c>
       <c r="T112">
-        <v>186553.4443</v>
+        <v>233467.823544636</v>
       </c>
       <c r="U112">
-        <v>186553.4443</v>
+        <v>246935.199595088</v>
       </c>
       <c r="V112">
-        <v>186553.4443</v>
+        <v>261179.428810702</v>
       </c>
       <c r="W112">
-        <v>186553.4443</v>
+        <v>276245.323249742</v>
       </c>
       <c r="X112">
-        <v>186553.4443</v>
+        <v>292180.279912718</v>
       </c>
       <c r="Y112">
-        <v>186553.4443</v>
+        <v>309034.429852393</v>
       </c>
       <c r="Z112">
-        <v>186553.4443</v>
+        <v>326860.79588507</v>
       </c>
       <c r="AA112">
-        <v>186553.4443</v>
+        <v>345715.459399302</v>
       </c>
       <c r="AB112">
-        <v>186553.4443</v>
+        <v>365657.736786811</v>
       </c>
       <c r="AC112">
-        <v>186553.4443</v>
+        <v>386750.366050662</v>
       </c>
       <c r="AD112">
-        <v>186553.4443</v>
+        <v>409059.704177757</v>
       </c>
       <c r="AE112">
-        <v>186553.4443</v>
+        <v>432655.935896579</v>
       </c>
       <c r="AF112">
-        <v>186553.4443</v>
+        <v>457613.294476938</v>
       </c>
       <c r="AG112">
-        <v>186553.4443</v>
+        <v>484010.295266338</v>
       </c>
       <c r="AH112">
-        <v>186553.4443</v>
+        <v>511929.98269768</v>
       </c>
       <c r="AI112">
-        <v>186553.4443</v>
+        <v>541460.19154538</v>
       </c>
       <c r="AJ112">
-        <v>186553.4443</v>
+        <v>572693.823251794</v>
       </c>
       <c r="AK112">
-        <v>186553.4443</v>
+        <v>605729.138193291</v>
       </c>
       <c r="AL112">
-        <v>186553.4443</v>
+        <v>640670.0648054139</v>
       </c>
       <c r="AM112">
-        <v>186553.4443</v>
+        <v>677626.526539647</v>
       </c>
       <c r="AN112">
-        <v>186553.4443</v>
+        <v>716714.787680378</v>
       </c>
       <c r="AO112">
-        <v>186553.4443</v>
+        <v>758057.819110001</v>
       </c>
       <c r="AP112">
-        <v>186553.4443</v>
+        <v>801785.685172829</v>
       </c>
       <c r="AQ112">
-        <v>186553.4443</v>
+        <v>848035.952854908</v>
       </c>
       <c r="AR112">
-        <v>186553.4443</v>
+        <v>896954.1245669801</v>
       </c>
       <c r="AS112">
-        <v>186553.4443</v>
+        <v>948694.095892142</v>
       </c>
     </row>
     <row r="113" spans="1:45">
